--- a/Financial Analysis/STLA.xlsx
+++ b/Financial Analysis/STLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BFE26-06CE-45E3-BD49-A862E3FEAA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2517D63-C28A-41E0-B240-7449EB37CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30EBCB5C-6AEB-429F-AD50-6C6253964D7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>STLA</t>
   </si>
@@ -185,15 +185,150 @@
   </si>
   <si>
     <t>Heavily undervalued</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>D/T</t>
+  </si>
+  <si>
+    <t>Other non-cash</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Working capital</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Fiat S.p.A. was founded on July 11, 1899, in Turin, Italy.</t>
+  </si>
+  <si>
+    <t>In 2009, FCA US (formerly Chrysler Group LLC) acquired the main assets of Chrysler</t>
+  </si>
+  <si>
+    <t>during a government-led restructuring of the U.S. auto industry.</t>
+  </si>
+  <si>
+    <t>Between 2009 and 2014, Fiat expanded its Chrysler ownership to 100%.</t>
+  </si>
+  <si>
+    <t>On October 12, 2014, Fiat reorganized into Fiat Chrysler Automobiles (FCA), headquartered in the UK.</t>
+  </si>
+  <si>
+    <t>Fiat separated its non-automotive businesses in 2011 into Fiat Industrial, now CNH Industrial.</t>
+  </si>
+  <si>
+    <t>In 2015, Ferrari completed its IPO, followed by a spin-off in 2016.</t>
+  </si>
+  <si>
+    <t>Peugeot S.A. began vehicle production in 1896.</t>
+  </si>
+  <si>
+    <t>In 1976, PSA acquired Citroën, and in 1978, it acquired Chrysler's European operations.</t>
+  </si>
+  <si>
+    <t>PSA Finance Holding became Banque PSA Finance in 1995.</t>
+  </si>
+  <si>
+    <t>In 2021, Stellantis distributed PSA’s 39% stake in Faurecia to its shareholders.</t>
+  </si>
+  <si>
+    <t>On December 17, 2019, FCA and PSA agreed to merge.</t>
+  </si>
+  <si>
+    <t>The merger completed on January 16, 2021, with FCA as the surviving entity.</t>
+  </si>
+  <si>
+    <t>On January 17, 2021, the combined company was renamed Stellantis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The company grew organically and through acquisitions, including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lancia, Alfa Romeo, Maserati,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Ferrari.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In 2017, PSA acquired </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Opel and Vauxhall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from General Motors.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-484]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-42D]"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -233,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -294,6 +435,10 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,8 +468,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -340,7 +485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6995160" y="0"/>
-          <a:ext cx="0" cy="5669280"/>
+          <a:ext cx="0" cy="9067800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -365,15 +510,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -390,7 +535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13098780" y="7620"/>
-          <a:ext cx="0" cy="6134100"/>
+          <a:ext cx="0" cy="9060180"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -713,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E5B53-6D51-47B4-A3B1-097E9F99F7BA}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +871,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
@@ -737,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,13 +897,16 @@
       </c>
       <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45779</v>
       </c>
       <c r="G3" s="6">
         <v>45777</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,8 +917,11 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +930,7 @@
         <v>30100.799999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +962,9 @@
         <f>D6-D7</f>
         <v>-3127</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,6 +972,89 @@
         <f>D5-D8</f>
         <v>33227.800000000003</v>
       </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,26 +1063,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47D57-48CF-44A3-8DFD-044512D5B18E}">
-  <dimension ref="B2:EO31"/>
+  <dimension ref="B2:EM49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="8.88671875" style="1"/>
-    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="30" width="8.88671875" style="1"/>
+    <col min="31" max="31" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
@@ -879,61 +1114,55 @@
         <v>35</v>
       </c>
       <c r="N2" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="O2" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P2" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q2" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="R2" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="S2" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="T2" s="1">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="U2" s="1">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="V2" s="1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="W2" s="1">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="X2" s="1">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="Y2" s="1">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="Z2" s="1">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="AA2" s="1">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="AB2" s="1">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="AC2" s="1">
-        <v>2033</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2034</v>
-      </c>
-      <c r="AE2" s="1">
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -941,71 +1170,77 @@
         <v>98368</v>
       </c>
       <c r="H3" s="9">
-        <f>S3-G3</f>
+        <f>Q3-G3</f>
         <v>91176</v>
       </c>
       <c r="I3" s="9">
         <v>85017</v>
       </c>
       <c r="J3" s="9">
-        <f>T3-I3</f>
+        <f>R3-I3</f>
         <v>71861</v>
       </c>
+      <c r="N3" s="9">
+        <v>133882</v>
+      </c>
+      <c r="O3" s="9">
+        <v>152119</v>
+      </c>
+      <c r="P3" s="9">
+        <v>179592</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>189544</v>
+      </c>
       <c r="R3" s="9">
-        <v>179592</v>
+        <v>156878</v>
       </c>
       <c r="S3" s="9">
-        <v>189544</v>
+        <f>R3*0.7</f>
+        <v>109814.59999999999</v>
       </c>
       <c r="T3" s="9">
-        <v>156878</v>
+        <f>S3*1.03</f>
+        <v>113109.038</v>
       </c>
       <c r="U3" s="9">
-        <f>T3*0.7</f>
-        <v>109814.59999999999</v>
+        <f>T3*1.02</f>
+        <v>115371.21876</v>
       </c>
       <c r="V3" s="9">
-        <f>U3*1.03</f>
-        <v>113109.038</v>
+        <f>U3*1.01</f>
+        <v>116524.93094760001</v>
       </c>
       <c r="W3" s="9">
-        <f>V3*1.02</f>
-        <v>115371.21876</v>
+        <f t="shared" ref="W3:AC3" si="0">V3*1.01</f>
+        <v>117690.180257076</v>
       </c>
       <c r="X3" s="9">
-        <f>W3*1.01</f>
-        <v>116524.93094760001</v>
+        <f t="shared" si="0"/>
+        <v>118867.08205964677</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3:AE3" si="0">X3*1.01</f>
-        <v>117690.180257076</v>
+        <f t="shared" si="0"/>
+        <v>120055.75288024324</v>
       </c>
       <c r="Z3" s="9">
         <f t="shared" si="0"/>
-        <v>118867.08205964677</v>
+        <v>121256.31040904566</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" si="0"/>
-        <v>120055.75288024324</v>
+        <v>122468.87351313612</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" si="0"/>
-        <v>121256.31040904566</v>
+        <v>123693.56224826748</v>
       </c>
       <c r="AC3" s="9">
         <f t="shared" si="0"/>
-        <v>122468.87351313612</v>
-      </c>
-      <c r="AD3" s="9">
-        <f t="shared" si="0"/>
-        <v>123693.56224826748</v>
-      </c>
-      <c r="AE3" s="9">
-        <f t="shared" si="0"/>
         <v>124930.49787075016</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,71 +1248,77 @@
         <v>76934</v>
       </c>
       <c r="H4" s="4">
-        <f>S4-G4</f>
+        <f>Q4-G4</f>
         <v>74466</v>
       </c>
       <c r="I4" s="4">
         <v>69818</v>
       </c>
       <c r="J4" s="4">
-        <f>T4-I4</f>
+        <f>R4-I4</f>
         <v>66542</v>
       </c>
+      <c r="N4" s="4">
+        <v>112187</v>
+      </c>
+      <c r="O4" s="4">
+        <v>122207</v>
+      </c>
+      <c r="P4" s="4">
+        <v>144327</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>151400</v>
+      </c>
       <c r="R4" s="4">
-        <v>144327</v>
+        <v>136360</v>
       </c>
       <c r="S4" s="4">
-        <v>151400</v>
+        <f>S3-S5</f>
+        <v>93342.409999999989</v>
       </c>
       <c r="T4" s="4">
-        <v>136360</v>
+        <f t="shared" ref="T4:AC4" si="1">T3-T5</f>
+        <v>93880.501539999997</v>
       </c>
       <c r="U4" s="4">
-        <f>U3-U5</f>
-        <v>93342.409999999989</v>
+        <f t="shared" si="1"/>
+        <v>93450.68719560001</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" ref="V4:AE4" si="1">V3-V5</f>
-        <v>93880.501539999997</v>
+        <f t="shared" si="1"/>
+        <v>93219.944758080004</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>93450.68719560001</v>
+        <v>94152.144205660807</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>93219.944758080004</v>
+        <v>95093.665647717411</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>94152.144205660807</v>
+        <v>96044.602304194588</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>95093.665647717411</v>
+        <v>97005.048327236524</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>96044.602304194588</v>
+        <v>97975.098810508891</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>97005.048327236524</v>
+        <v>98954.849798613985</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>97975.098810508891</v>
-      </c>
-      <c r="AD4" s="4">
-        <f t="shared" si="1"/>
-        <v>98954.849798613985</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="1"/>
         <v>99944.39829660012</v>
       </c>
     </row>
-    <row r="5" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1097,64 +1338,72 @@
         <f>J3-J4</f>
         <v>5319</v>
       </c>
+      <c r="N5" s="9">
+        <f>N3-N4</f>
+        <v>21695</v>
+      </c>
+      <c r="O5" s="9">
+        <f>O3-O4</f>
+        <v>29912</v>
+      </c>
+      <c r="P5" s="9">
+        <f>P3-P4</f>
+        <v>35265</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>Q3-Q4</f>
+        <v>38144</v>
+      </c>
       <c r="R5" s="9">
         <f>R3-R4</f>
-        <v>35265</v>
+        <v>20518</v>
       </c>
       <c r="S5" s="9">
-        <f>S3-S4</f>
-        <v>38144</v>
+        <f>S3*0.15</f>
+        <v>16472.189999999999</v>
       </c>
       <c r="T5" s="9">
-        <f>T3-T4</f>
-        <v>20518</v>
+        <f>T3*0.17</f>
+        <v>19228.536460000003</v>
       </c>
       <c r="U5" s="9">
-        <f>U3*0.15</f>
-        <v>16472.189999999999</v>
+        <f>U3*0.19</f>
+        <v>21920.5315644</v>
       </c>
       <c r="V5" s="9">
-        <f>V3*0.17</f>
-        <v>19228.536460000003</v>
+        <f>V3*0.2</f>
+        <v>23304.986189520001</v>
       </c>
       <c r="W5" s="9">
-        <f>W3*0.19</f>
-        <v>21920.5315644</v>
+        <f t="shared" ref="W5:AC5" si="2">W3*0.2</f>
+        <v>23538.036051415202</v>
       </c>
       <c r="X5" s="9">
-        <f>X3*0.2</f>
-        <v>23304.986189520001</v>
+        <f t="shared" si="2"/>
+        <v>23773.416411929356</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5:AE5" si="2">Y3*0.2</f>
-        <v>23538.036051415202</v>
+        <f t="shared" si="2"/>
+        <v>24011.150576048647</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="2"/>
-        <v>23773.416411929356</v>
+        <v>24251.262081809135</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="2"/>
-        <v>24011.150576048647</v>
+        <v>24493.774702627226</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="2"/>
-        <v>24251.262081809135</v>
+        <v>24738.712449653496</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="2"/>
-        <v>24493.774702627226</v>
-      </c>
-      <c r="AD5" s="9">
-        <f t="shared" si="2"/>
-        <v>24738.712449653496</v>
-      </c>
-      <c r="AE5" s="9">
-        <f t="shared" si="2"/>
         <v>24986.099574150034</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1162,71 +1411,77 @@
         <v>4921</v>
       </c>
       <c r="H6" s="4">
-        <f>S6-G6</f>
+        <f>Q6-G6</f>
         <v>4620</v>
       </c>
       <c r="I6" s="4">
         <v>4564</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ref="J6:J10" si="3">T6-I6</f>
+        <f>R6-I6</f>
         <v>4735</v>
       </c>
+      <c r="N6" s="4">
+        <v>9397</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9320</v>
+      </c>
+      <c r="P6" s="4">
+        <v>8981</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>9541</v>
+      </c>
       <c r="R6" s="4">
-        <v>8981</v>
+        <v>9299</v>
       </c>
       <c r="S6" s="4">
-        <v>9541</v>
+        <f>R6*0.95</f>
+        <v>8834.0499999999993</v>
       </c>
       <c r="T6" s="4">
-        <v>9299</v>
+        <f>S6*1.02</f>
+        <v>9010.7309999999998</v>
       </c>
       <c r="U6" s="4">
-        <f>T6*0.95</f>
-        <v>8834.0499999999993</v>
+        <f>T6*1.01</f>
+        <v>9100.8383099999992</v>
       </c>
       <c r="V6" s="4">
-        <f>U6*1.02</f>
-        <v>9010.7309999999998</v>
+        <f t="shared" ref="V6:AC6" si="3">U6*1.01</f>
+        <v>9191.8466930999984</v>
       </c>
       <c r="W6" s="4">
-        <f>V6*1.01</f>
-        <v>9100.8383099999992</v>
+        <f t="shared" si="3"/>
+        <v>9283.7651600309982</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" ref="X6:AE6" si="4">W6*1.01</f>
-        <v>9191.8466930999984</v>
+        <f t="shared" si="3"/>
+        <v>9376.6028116313082</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="4"/>
-        <v>9283.7651600309982</v>
+        <f t="shared" si="3"/>
+        <v>9470.3688397476217</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="4"/>
-        <v>9376.6028116313082</v>
+        <f t="shared" si="3"/>
+        <v>9565.0725281450977</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" si="4"/>
-        <v>9470.3688397476217</v>
+        <f t="shared" si="3"/>
+        <v>9660.7232534265495</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="4"/>
-        <v>9565.0725281450977</v>
+        <f t="shared" si="3"/>
+        <v>9757.3304859608143</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" si="4"/>
-        <v>9660.7232534265495</v>
-      </c>
-      <c r="AD6" s="4">
-        <f t="shared" si="4"/>
-        <v>9757.3304859608143</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9854.9037908204227</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1234,71 +1489,77 @@
         <v>2735</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H10" si="5">S7-G7</f>
+        <f>Q7-G7</f>
         <v>2884</v>
       </c>
       <c r="I7" s="4">
         <v>2819</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="3"/>
+        <f>R7-I7</f>
         <v>2965</v>
       </c>
+      <c r="N7" s="4">
+        <v>4551</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4560</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5200</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5619</v>
+      </c>
       <c r="R7" s="4">
-        <v>5200</v>
+        <v>5784</v>
       </c>
       <c r="S7" s="4">
-        <v>5619</v>
+        <f>R7*1.01</f>
+        <v>5841.84</v>
       </c>
       <c r="T7" s="4">
-        <v>5784</v>
+        <f t="shared" ref="T7:AC7" si="4">S7*1.01</f>
+        <v>5900.2584000000006</v>
       </c>
       <c r="U7" s="4">
-        <f>T7*1.01</f>
-        <v>5841.84</v>
+        <f t="shared" si="4"/>
+        <v>5959.2609840000005</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" ref="V7:AE7" si="6">U7*1.01</f>
-        <v>5900.2584000000006</v>
+        <f t="shared" si="4"/>
+        <v>6018.8535938400009</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="6"/>
-        <v>5959.2609840000005</v>
+        <f t="shared" si="4"/>
+        <v>6079.0421297784014</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="6"/>
-        <v>6018.8535938400009</v>
+        <f t="shared" si="4"/>
+        <v>6139.8325510761852</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="6"/>
-        <v>6079.0421297784014</v>
+        <f t="shared" si="4"/>
+        <v>6201.2308765869475</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" si="6"/>
-        <v>6139.8325510761852</v>
+        <f t="shared" si="4"/>
+        <v>6263.2431853528169</v>
       </c>
       <c r="AA7" s="4">
-        <f t="shared" si="6"/>
-        <v>6201.2308765869475</v>
+        <f t="shared" si="4"/>
+        <v>6325.8756172063449</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="6"/>
-        <v>6263.2431853528169</v>
+        <f t="shared" si="4"/>
+        <v>6389.1343733784088</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" si="6"/>
-        <v>6325.8756172063449</v>
-      </c>
-      <c r="AD7" s="4">
-        <f t="shared" si="6"/>
-        <v>6389.1343733784088</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6453.025717112193</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,24 +1567,36 @@
         <v>-22</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="5"/>
+        <f>Q8-G8</f>
         <v>2</v>
       </c>
       <c r="I8" s="4">
         <v>46</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
+        <f>R8-I8</f>
         <v>52</v>
       </c>
+      <c r="N8" s="4">
+        <v>-178</v>
+      </c>
+      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-72</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>-20</v>
+      </c>
       <c r="R8" s="4">
-        <v>-72</v>
+        <v>98</v>
       </c>
       <c r="S8" s="4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U8" s="4">
         <v>0</v>
@@ -1352,14 +1625,8 @@
       <c r="AC8" s="4">
         <v>0</v>
       </c>
-      <c r="AD8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1367,71 +1634,77 @@
         <v>552</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="5"/>
+        <f>Q9-G9</f>
         <v>567</v>
       </c>
       <c r="I9" s="4">
         <v>1212</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
+        <f>R9-I9</f>
         <v>405</v>
       </c>
+      <c r="N9" s="4">
+        <v>489</v>
+      </c>
+      <c r="O9" s="4">
+        <v>698</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1144</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1119</v>
+      </c>
       <c r="R9" s="4">
-        <v>1144</v>
+        <v>1617</v>
       </c>
       <c r="S9" s="4">
-        <v>1119</v>
+        <f>R9*1.2</f>
+        <v>1940.3999999999999</v>
       </c>
       <c r="T9" s="4">
-        <v>1617</v>
+        <f>S9*0.8</f>
+        <v>1552.32</v>
       </c>
       <c r="U9" s="4">
-        <f>T9*1.2</f>
-        <v>1940.3999999999999</v>
+        <f t="shared" ref="U9:AC9" si="5">T9*0.8</f>
+        <v>1241.856</v>
       </c>
       <c r="V9" s="4">
-        <f>U9*0.8</f>
-        <v>1552.32</v>
+        <f t="shared" si="5"/>
+        <v>993.48480000000006</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" ref="W9:AE9" si="7">V9*0.8</f>
-        <v>1241.856</v>
+        <f t="shared" si="5"/>
+        <v>794.78784000000007</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="7"/>
-        <v>993.48480000000006</v>
+        <f t="shared" si="5"/>
+        <v>635.83027200000015</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="7"/>
-        <v>794.78784000000007</v>
+        <f t="shared" si="5"/>
+        <v>508.66421760000014</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="7"/>
-        <v>635.83027200000015</v>
+        <f t="shared" si="5"/>
+        <v>406.93137408000013</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="7"/>
-        <v>508.66421760000014</v>
+        <f t="shared" si="5"/>
+        <v>325.5450992640001</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="7"/>
-        <v>406.93137408000013</v>
+        <f t="shared" si="5"/>
+        <v>260.43607941120007</v>
       </c>
       <c r="AC9" s="4">
-        <f t="shared" si="7"/>
-        <v>325.5450992640001</v>
-      </c>
-      <c r="AD9" s="4">
-        <f t="shared" si="7"/>
-        <v>260.43607941120007</v>
-      </c>
-      <c r="AE9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>208.34886352896007</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,24 +1712,36 @@
         <v>-293</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="5"/>
+        <f>Q10-G10</f>
         <v>-198</v>
       </c>
       <c r="I10" s="4">
         <v>-81</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="3"/>
+        <f>R10-I10</f>
         <v>114</v>
       </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-264</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-491</v>
+      </c>
       <c r="R10" s="4">
-        <v>-264</v>
+        <v>33</v>
       </c>
       <c r="S10" s="4">
-        <v>-491</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U10" s="4">
         <v>0</v>
@@ -1485,14 +1770,8 @@
       <c r="AC10" s="4">
         <v>0</v>
       </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1512,64 +1791,72 @@
         <f>SUM(J6:J10)</f>
         <v>8271</v>
       </c>
+      <c r="N11" s="4">
+        <f t="shared" ref="N11:S11" si="6">SUM(N6:N10)</f>
+        <v>14259</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="6"/>
+        <v>14613</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="6"/>
+        <v>14989</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="6"/>
+        <v>15768</v>
+      </c>
       <c r="R11" s="4">
-        <f>SUM(R6:R10)</f>
-        <v>14989</v>
+        <f t="shared" si="6"/>
+        <v>16831</v>
       </c>
       <c r="S11" s="4">
-        <f>SUM(S6:S10)</f>
-        <v>15768</v>
+        <f t="shared" si="6"/>
+        <v>16616.29</v>
       </c>
       <c r="T11" s="4">
-        <f>SUM(T6:T10)</f>
-        <v>16831</v>
+        <f t="shared" ref="T11:AC11" si="7">SUM(T6:T10)</f>
+        <v>16463.309400000002</v>
       </c>
       <c r="U11" s="4">
-        <f>SUM(U6:U10)</f>
-        <v>16616.29</v>
+        <f t="shared" si="7"/>
+        <v>16301.955293999999</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" ref="V11:AE11" si="8">SUM(V6:V10)</f>
-        <v>16463.309400000002</v>
+        <f t="shared" si="7"/>
+        <v>16204.185086939999</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="8"/>
-        <v>16301.955293999999</v>
+        <f t="shared" si="7"/>
+        <v>16157.595129809401</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="8"/>
-        <v>16204.185086939999</v>
+        <f t="shared" si="7"/>
+        <v>16152.265634707492</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="8"/>
-        <v>16157.595129809401</v>
+        <f t="shared" si="7"/>
+        <v>16180.26393393457</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="8"/>
-        <v>16152.265634707492</v>
+        <f t="shared" si="7"/>
+        <v>16235.247087577916</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="8"/>
-        <v>16180.26393393457</v>
+        <f t="shared" si="7"/>
+        <v>16312.143969896893</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="8"/>
-        <v>16235.247087577916</v>
+        <f t="shared" si="7"/>
+        <v>16406.900938750423</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="8"/>
-        <v>16312.143969896893</v>
-      </c>
-      <c r="AD11" s="4">
-        <f t="shared" si="8"/>
-        <v>16406.900938750423</v>
-      </c>
-      <c r="AE11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16516.278371461576</v>
       </c>
     </row>
-    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1589,64 +1876,72 @@
         <f>J5-J11</f>
         <v>-2952</v>
       </c>
+      <c r="N12" s="9">
+        <f t="shared" ref="N12:S12" si="8">N5-N11</f>
+        <v>7436</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="8"/>
+        <v>15299</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="8"/>
+        <v>20276</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="8"/>
+        <v>22376</v>
+      </c>
       <c r="R12" s="9">
-        <f>R5-R11</f>
-        <v>20276</v>
+        <f t="shared" si="8"/>
+        <v>3687</v>
       </c>
       <c r="S12" s="9">
-        <f>S5-S11</f>
-        <v>22376</v>
+        <f t="shared" si="8"/>
+        <v>-144.10000000000218</v>
       </c>
       <c r="T12" s="9">
-        <f>T5-T11</f>
-        <v>3687</v>
+        <f t="shared" ref="T12:AC12" si="9">T5-T11</f>
+        <v>2765.2270600000011</v>
       </c>
       <c r="U12" s="9">
-        <f>U5-U11</f>
-        <v>-144.10000000000218</v>
+        <f t="shared" si="9"/>
+        <v>5618.5762704000008</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" ref="V12:AE12" si="9">V5-V11</f>
-        <v>2765.2270600000011</v>
+        <f t="shared" si="9"/>
+        <v>7100.8011025800024</v>
       </c>
       <c r="W12" s="9">
         <f t="shared" si="9"/>
-        <v>5618.5762704000008</v>
+        <v>7380.4409216058011</v>
       </c>
       <c r="X12" s="9">
         <f t="shared" si="9"/>
-        <v>7100.8011025800024</v>
+        <v>7621.1507772218647</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="9"/>
-        <v>7380.4409216058011</v>
+        <v>7830.8866421140774</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="9"/>
-        <v>7621.1507772218647</v>
+        <v>8016.0149942312182</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="9"/>
-        <v>7830.8866421140774</v>
+        <v>8181.630732730333</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="9"/>
-        <v>8016.0149942312182</v>
+        <v>8331.8115109030732</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="9"/>
-        <v>8181.630732730333</v>
-      </c>
-      <c r="AD12" s="9">
-        <f t="shared" si="9"/>
-        <v>8331.8115109030732</v>
-      </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="9"/>
         <v>8469.8212026884576</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1654,24 +1949,36 @@
         <v>-69</v>
       </c>
       <c r="H13" s="4">
-        <f>S13-G13</f>
+        <f>Q13-G13</f>
         <v>27</v>
       </c>
       <c r="I13" s="4">
         <v>-350</v>
       </c>
       <c r="J13" s="4">
-        <f>T13-I13</f>
+        <f>R13-I13</f>
         <v>5</v>
       </c>
+      <c r="N13" s="4">
+        <v>672</v>
+      </c>
+      <c r="O13" s="4">
+        <v>746</v>
+      </c>
+      <c r="P13" s="4">
+        <v>768</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-42</v>
+      </c>
       <c r="R13" s="4">
-        <v>768</v>
+        <v>-345</v>
       </c>
       <c r="S13" s="4">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
@@ -1700,14 +2007,8 @@
       <c r="AC13" s="4">
         <v>0</v>
       </c>
-      <c r="AD13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1727,64 +2028,72 @@
         <f>J12-J13</f>
         <v>-2957</v>
       </c>
+      <c r="N14" s="9">
+        <f t="shared" ref="N14:S14" si="10">N12-N13</f>
+        <v>6764</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="10"/>
+        <v>14553</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="10"/>
+        <v>19508</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="10"/>
+        <v>22418</v>
+      </c>
       <c r="R14" s="9">
-        <f>R12-R13</f>
-        <v>19508</v>
+        <f t="shared" si="10"/>
+        <v>4032</v>
       </c>
       <c r="S14" s="9">
-        <f>S12-S13</f>
-        <v>22418</v>
+        <f t="shared" si="10"/>
+        <v>-144.10000000000218</v>
       </c>
       <c r="T14" s="9">
-        <f>T12-T13</f>
-        <v>4032</v>
+        <f t="shared" ref="T14:AC14" si="11">T12-T13</f>
+        <v>2765.2270600000011</v>
       </c>
       <c r="U14" s="9">
-        <f>U12-U13</f>
-        <v>-144.10000000000218</v>
+        <f t="shared" si="11"/>
+        <v>5618.5762704000008</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" ref="V14:AE14" si="10">V12-V13</f>
-        <v>2765.2270600000011</v>
+        <f t="shared" si="11"/>
+        <v>7100.8011025800024</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="10"/>
-        <v>5618.5762704000008</v>
+        <f t="shared" si="11"/>
+        <v>7380.4409216058011</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="10"/>
-        <v>7100.8011025800024</v>
+        <f t="shared" si="11"/>
+        <v>7621.1507772218647</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="10"/>
-        <v>7380.4409216058011</v>
+        <f t="shared" si="11"/>
+        <v>7830.8866421140774</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="10"/>
-        <v>7621.1507772218647</v>
+        <f t="shared" si="11"/>
+        <v>8016.0149942312182</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="10"/>
-        <v>7830.8866421140774</v>
+        <f t="shared" si="11"/>
+        <v>8181.630732730333</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="10"/>
-        <v>8016.0149942312182</v>
+        <f t="shared" si="11"/>
+        <v>8331.8115109030732</v>
       </c>
       <c r="AC14" s="9">
-        <f t="shared" si="10"/>
-        <v>8181.630732730333</v>
-      </c>
-      <c r="AD14" s="9">
-        <f t="shared" si="10"/>
-        <v>8331.8115109030732</v>
-      </c>
-      <c r="AE14" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8469.8212026884576</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1792,71 +2101,77 @@
         <v>2692</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" ref="H15:H16" si="11">S15-G15</f>
+        <f>Q15-G15</f>
         <v>1101</v>
       </c>
       <c r="I15" s="4">
         <v>1342</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" ref="J15:J16" si="12">T15-I15</f>
+        <f>R15-I15</f>
         <v>-2830</v>
       </c>
+      <c r="N15" s="4">
+        <v>2084</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1939</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2729</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3793</v>
+      </c>
       <c r="R15" s="4">
-        <v>2729</v>
+        <v>-1488</v>
       </c>
       <c r="S15" s="4">
-        <v>3793</v>
+        <f>S14*0.15</f>
+        <v>-21.615000000000325</v>
       </c>
       <c r="T15" s="4">
-        <v>-1488</v>
+        <f t="shared" ref="T15:AC15" si="12">T14*0.15</f>
+        <v>414.78405900000013</v>
       </c>
       <c r="U15" s="4">
-        <f>U14*0.15</f>
-        <v>-21.615000000000325</v>
+        <f t="shared" si="12"/>
+        <v>842.78644056000007</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" ref="V15:AE15" si="13">V14*0.15</f>
-        <v>414.78405900000013</v>
+        <f t="shared" si="12"/>
+        <v>1065.1201653870003</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="13"/>
-        <v>842.78644056000007</v>
+        <f t="shared" si="12"/>
+        <v>1107.06613824087</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="13"/>
-        <v>1065.1201653870003</v>
+        <f t="shared" si="12"/>
+        <v>1143.1726165832797</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="13"/>
-        <v>1107.06613824087</v>
+        <f t="shared" si="12"/>
+        <v>1174.6329963171115</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="13"/>
-        <v>1143.1726165832797</v>
+        <f t="shared" si="12"/>
+        <v>1202.4022491346827</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="13"/>
-        <v>1174.6329963171115</v>
+        <f t="shared" si="12"/>
+        <v>1227.2446099095498</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="13"/>
-        <v>1202.4022491346827</v>
+        <f t="shared" si="12"/>
+        <v>1249.7717266354609</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="13"/>
-        <v>1227.2446099095498</v>
-      </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="13"/>
-        <v>1249.7717266354609</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1270.4731804032685</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1864,71 +2179,79 @@
         <v>-5</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="11"/>
+        <f>Q16-G16</f>
         <v>34</v>
       </c>
       <c r="I16" s="4">
         <v>23</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="12"/>
+        <f>R16-I16</f>
         <v>24</v>
       </c>
+      <c r="N16" s="4">
+        <f>-110+315-139</f>
+        <v>66</v>
+      </c>
+      <c r="O16" s="4">
+        <f>-740-990+8</f>
+        <v>-1722</v>
+      </c>
+      <c r="P16" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>29</v>
+      </c>
       <c r="R16" s="4">
-        <v>-20</v>
+        <v>47</v>
       </c>
       <c r="S16" s="4">
-        <v>29</v>
+        <f>S14*0.01</f>
+        <v>-1.4410000000000218</v>
       </c>
       <c r="T16" s="4">
-        <v>47</v>
+        <f t="shared" ref="T16:AC16" si="13">T14*0.01</f>
+        <v>27.652270600000012</v>
       </c>
       <c r="U16" s="4">
-        <f>U14*0.01</f>
-        <v>-1.4410000000000218</v>
+        <f t="shared" si="13"/>
+        <v>56.185762704000012</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" ref="V16:AE16" si="14">V14*0.01</f>
-        <v>27.652270600000012</v>
+        <f t="shared" si="13"/>
+        <v>71.00801102580003</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="14"/>
-        <v>56.185762704000012</v>
+        <f t="shared" si="13"/>
+        <v>73.804409216058019</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="14"/>
-        <v>71.00801102580003</v>
+        <f t="shared" si="13"/>
+        <v>76.211507772218653</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="14"/>
-        <v>73.804409216058019</v>
+        <f t="shared" si="13"/>
+        <v>78.308866421140777</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="14"/>
-        <v>76.211507772218653</v>
+        <f t="shared" si="13"/>
+        <v>80.160149942312188</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="14"/>
-        <v>78.308866421140777</v>
+        <f t="shared" si="13"/>
+        <v>81.816307327303335</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="14"/>
-        <v>80.160149942312188</v>
+        <f t="shared" si="13"/>
+        <v>83.318115109030728</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="14"/>
-        <v>81.816307327303335</v>
-      </c>
-      <c r="AD16" s="4">
-        <f t="shared" si="14"/>
-        <v>83.318115109030728</v>
-      </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>84.698212026884576</v>
       </c>
     </row>
-    <row r="17" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:143" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1948,520 +2271,528 @@
         <f>J14-J15-J16</f>
         <v>-151</v>
       </c>
+      <c r="N17" s="9">
+        <f t="shared" ref="N17:S17" si="14">N14-N15-N16</f>
+        <v>4614</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="14"/>
+        <v>14336</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="14"/>
+        <v>16799</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="14"/>
+        <v>18596</v>
+      </c>
       <c r="R17" s="9">
-        <f>R14-R15-R16</f>
-        <v>16799</v>
+        <f t="shared" si="14"/>
+        <v>5473</v>
       </c>
       <c r="S17" s="9">
-        <f>S14-S15-S16</f>
-        <v>18596</v>
+        <f t="shared" si="14"/>
+        <v>-121.04400000000184</v>
       </c>
       <c r="T17" s="9">
-        <f>T14-T15-T16</f>
-        <v>5473</v>
+        <f t="shared" ref="T17:AC17" si="15">T14-T15-T16</f>
+        <v>2322.7907304000009</v>
       </c>
       <c r="U17" s="9">
-        <f>U14-U15-U16</f>
-        <v>-121.04400000000184</v>
+        <f t="shared" si="15"/>
+        <v>4719.6040671360006</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" ref="V17:AE17" si="15">V14-V15-V16</f>
-        <v>2322.7907304000009</v>
+        <f t="shared" si="15"/>
+        <v>5964.6729261672017</v>
       </c>
       <c r="W17" s="9">
         <f t="shared" si="15"/>
-        <v>4719.6040671360006</v>
+        <v>6199.5703741488733</v>
       </c>
       <c r="X17" s="9">
         <f t="shared" si="15"/>
-        <v>5964.6729261672017</v>
+        <v>6401.7666528663667</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="15"/>
-        <v>6199.5703741488733</v>
+        <v>6577.9447793758245</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="15"/>
-        <v>6401.7666528663667</v>
+        <v>6733.4525951542237</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="15"/>
-        <v>6577.9447793758245</v>
+        <v>6872.5698154934798</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="15"/>
-        <v>6733.4525951542237</v>
+        <v>6998.7216691585809</v>
       </c>
       <c r="AC17" s="9">
         <f t="shared" si="15"/>
-        <v>6872.5698154934798</v>
-      </c>
-      <c r="AD17" s="9">
-        <f t="shared" si="15"/>
-        <v>6998.7216691585809</v>
-      </c>
-      <c r="AE17" s="9">
-        <f t="shared" si="15"/>
         <v>7114.6498102583037</v>
       </c>
+      <c r="AD17" s="2">
+        <f>AC17*(1+$AF$23)</f>
+        <v>7043.5033121557208</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" ref="AE17:CP17" si="16">AD17*(1+$AF$23)</f>
+        <v>6973.0682790341634</v>
+      </c>
       <c r="AF17" s="2">
-        <f>AE17*(1+$AH$23)</f>
-        <v>7043.5033121557208</v>
+        <f t="shared" si="16"/>
+        <v>6903.3375962438213</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" ref="AG17:CR17" si="16">AF17*(1+$AH$23)</f>
-        <v>6973.0682790341634</v>
+        <f t="shared" si="16"/>
+        <v>6834.3042202813831</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="16"/>
-        <v>6903.3375962438213</v>
+        <v>6765.961178078569</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="16"/>
-        <v>6834.3042202813831</v>
+        <v>6698.3015662977832</v>
       </c>
       <c r="AJ17" s="2">
         <f t="shared" si="16"/>
-        <v>6765.961178078569</v>
+        <v>6631.3185506348054</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="16"/>
-        <v>6698.3015662977832</v>
+        <v>6565.005365128457</v>
       </c>
       <c r="AL17" s="2">
         <f t="shared" si="16"/>
-        <v>6631.3185506348054</v>
+        <v>6499.3553114771721</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="16"/>
-        <v>6565.005365128457</v>
+        <v>6434.3617583624</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="16"/>
-        <v>6499.3553114771721</v>
+        <v>6370.0181407787759</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="16"/>
-        <v>6434.3617583624</v>
+        <v>6306.3179593709883</v>
       </c>
       <c r="AP17" s="2">
         <f t="shared" si="16"/>
-        <v>6370.0181407787759</v>
+        <v>6243.2547797772786</v>
       </c>
       <c r="AQ17" s="2">
         <f t="shared" si="16"/>
-        <v>6306.3179593709883</v>
+        <v>6180.8222319795059</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" si="16"/>
-        <v>6243.2547797772786</v>
+        <v>6119.0140096597106</v>
       </c>
       <c r="AS17" s="2">
         <f t="shared" si="16"/>
-        <v>6180.8222319795059</v>
+        <v>6057.8238695631135</v>
       </c>
       <c r="AT17" s="2">
         <f t="shared" si="16"/>
-        <v>6119.0140096597106</v>
+        <v>5997.2456308674819</v>
       </c>
       <c r="AU17" s="2">
         <f t="shared" si="16"/>
-        <v>6057.8238695631135</v>
+        <v>5937.2731745588071</v>
       </c>
       <c r="AV17" s="2">
         <f t="shared" si="16"/>
-        <v>5997.2456308674819</v>
+        <v>5877.9004428132193</v>
       </c>
       <c r="AW17" s="2">
         <f t="shared" si="16"/>
-        <v>5937.2731745588071</v>
+        <v>5819.1214383850875</v>
       </c>
       <c r="AX17" s="2">
         <f t="shared" si="16"/>
-        <v>5877.9004428132193</v>
+        <v>5760.9302240012366</v>
       </c>
       <c r="AY17" s="2">
         <f t="shared" si="16"/>
-        <v>5819.1214383850875</v>
+        <v>5703.3209217612239</v>
       </c>
       <c r="AZ17" s="2">
         <f t="shared" si="16"/>
-        <v>5760.9302240012366</v>
+        <v>5646.2877125436116</v>
       </c>
       <c r="BA17" s="2">
         <f t="shared" si="16"/>
-        <v>5703.3209217612239</v>
+        <v>5589.8248354181751</v>
       </c>
       <c r="BB17" s="2">
         <f t="shared" si="16"/>
-        <v>5646.2877125436116</v>
+        <v>5533.9265870639929</v>
       </c>
       <c r="BC17" s="2">
         <f t="shared" si="16"/>
-        <v>5589.8248354181751</v>
+        <v>5478.5873211933531</v>
       </c>
       <c r="BD17" s="2">
         <f t="shared" si="16"/>
-        <v>5533.9265870639929</v>
+        <v>5423.8014479814192</v>
       </c>
       <c r="BE17" s="2">
         <f t="shared" si="16"/>
-        <v>5478.5873211933531</v>
+        <v>5369.5634335016048</v>
       </c>
       <c r="BF17" s="2">
         <f t="shared" si="16"/>
-        <v>5423.8014479814192</v>
+        <v>5315.8677991665891</v>
       </c>
       <c r="BG17" s="2">
         <f t="shared" si="16"/>
-        <v>5369.5634335016048</v>
+        <v>5262.709121174923</v>
       </c>
       <c r="BH17" s="2">
         <f t="shared" si="16"/>
-        <v>5315.8677991665891</v>
+        <v>5210.0820299631741</v>
       </c>
       <c r="BI17" s="2">
         <f t="shared" si="16"/>
-        <v>5262.709121174923</v>
+        <v>5157.9812096635424</v>
       </c>
       <c r="BJ17" s="2">
         <f t="shared" si="16"/>
-        <v>5210.0820299631741</v>
+        <v>5106.4013975669068</v>
       </c>
       <c r="BK17" s="2">
         <f t="shared" si="16"/>
-        <v>5157.9812096635424</v>
+        <v>5055.337383591238</v>
       </c>
       <c r="BL17" s="2">
         <f t="shared" si="16"/>
-        <v>5106.4013975669068</v>
+        <v>5004.7840097553253</v>
       </c>
       <c r="BM17" s="2">
         <f t="shared" si="16"/>
-        <v>5055.337383591238</v>
+        <v>4954.7361696577718</v>
       </c>
       <c r="BN17" s="2">
         <f t="shared" si="16"/>
-        <v>5004.7840097553253</v>
+        <v>4905.1888079611945</v>
       </c>
       <c r="BO17" s="2">
         <f t="shared" si="16"/>
-        <v>4954.7361696577718</v>
+        <v>4856.1369198815828</v>
       </c>
       <c r="BP17" s="2">
         <f t="shared" si="16"/>
-        <v>4905.1888079611945</v>
+        <v>4807.5755506827672</v>
       </c>
       <c r="BQ17" s="2">
         <f t="shared" si="16"/>
-        <v>4856.1369198815828</v>
+        <v>4759.4997951759397</v>
       </c>
       <c r="BR17" s="2">
         <f t="shared" si="16"/>
-        <v>4807.5755506827672</v>
+        <v>4711.9047972241806</v>
       </c>
       <c r="BS17" s="2">
         <f t="shared" si="16"/>
-        <v>4759.4997951759397</v>
+        <v>4664.7857492519388</v>
       </c>
       <c r="BT17" s="2">
         <f t="shared" si="16"/>
-        <v>4711.9047972241806</v>
+        <v>4618.1378917594193</v>
       </c>
       <c r="BU17" s="2">
         <f t="shared" si="16"/>
-        <v>4664.7857492519388</v>
+        <v>4571.9565128418253</v>
       </c>
       <c r="BV17" s="2">
         <f t="shared" si="16"/>
-        <v>4618.1378917594193</v>
+        <v>4526.2369477134071</v>
       </c>
       <c r="BW17" s="2">
         <f t="shared" si="16"/>
-        <v>4571.9565128418253</v>
+        <v>4480.9745782362734</v>
       </c>
       <c r="BX17" s="2">
         <f t="shared" si="16"/>
-        <v>4526.2369477134071</v>
+        <v>4436.164832453911</v>
       </c>
       <c r="BY17" s="2">
         <f t="shared" si="16"/>
-        <v>4480.9745782362734</v>
+        <v>4391.8031841293714</v>
       </c>
       <c r="BZ17" s="2">
         <f t="shared" si="16"/>
-        <v>4436.164832453911</v>
+        <v>4347.8851522880777</v>
       </c>
       <c r="CA17" s="2">
         <f t="shared" si="16"/>
-        <v>4391.8031841293714</v>
+        <v>4304.4063007651966</v>
       </c>
       <c r="CB17" s="2">
         <f t="shared" si="16"/>
-        <v>4347.8851522880777</v>
+        <v>4261.3622377575448</v>
       </c>
       <c r="CC17" s="2">
         <f t="shared" si="16"/>
-        <v>4304.4063007651966</v>
+        <v>4218.7486153799691</v>
       </c>
       <c r="CD17" s="2">
         <f t="shared" si="16"/>
-        <v>4261.3622377575448</v>
+        <v>4176.5611292261692</v>
       </c>
       <c r="CE17" s="2">
         <f t="shared" si="16"/>
-        <v>4218.7486153799691</v>
+        <v>4134.7955179339078</v>
       </c>
       <c r="CF17" s="2">
         <f t="shared" si="16"/>
-        <v>4176.5611292261692</v>
+        <v>4093.4475627545689</v>
       </c>
       <c r="CG17" s="2">
         <f t="shared" si="16"/>
-        <v>4134.7955179339078</v>
+        <v>4052.513087127023</v>
       </c>
       <c r="CH17" s="2">
         <f t="shared" si="16"/>
-        <v>4093.4475627545689</v>
+        <v>4011.9879562557526</v>
       </c>
       <c r="CI17" s="2">
         <f t="shared" si="16"/>
-        <v>4052.513087127023</v>
+        <v>3971.8680766931952</v>
       </c>
       <c r="CJ17" s="2">
         <f t="shared" si="16"/>
-        <v>4011.9879562557526</v>
+        <v>3932.1493959262634</v>
       </c>
       <c r="CK17" s="2">
         <f t="shared" si="16"/>
-        <v>3971.8680766931952</v>
+        <v>3892.8279019670008</v>
       </c>
       <c r="CL17" s="2">
         <f t="shared" si="16"/>
-        <v>3932.1493959262634</v>
+        <v>3853.899622947331</v>
       </c>
       <c r="CM17" s="2">
         <f t="shared" si="16"/>
-        <v>3892.8279019670008</v>
+        <v>3815.3606267178575</v>
       </c>
       <c r="CN17" s="2">
         <f t="shared" si="16"/>
-        <v>3853.899622947331</v>
+        <v>3777.207020450679</v>
       </c>
       <c r="CO17" s="2">
         <f t="shared" si="16"/>
-        <v>3815.3606267178575</v>
+        <v>3739.4349502461723</v>
       </c>
       <c r="CP17" s="2">
         <f t="shared" si="16"/>
-        <v>3777.207020450679</v>
+        <v>3702.0406007437105</v>
       </c>
       <c r="CQ17" s="2">
-        <f t="shared" si="16"/>
-        <v>3739.4349502461723</v>
+        <f t="shared" ref="CQ17:EM17" si="17">CP17*(1+$AF$23)</f>
+        <v>3665.0201947362734</v>
       </c>
       <c r="CR17" s="2">
-        <f t="shared" si="16"/>
-        <v>3702.0406007437105</v>
+        <f t="shared" si="17"/>
+        <v>3628.3699927889106</v>
       </c>
       <c r="CS17" s="2">
-        <f t="shared" ref="CS17:EO17" si="17">CR17*(1+$AH$23)</f>
-        <v>3665.0201947362734</v>
+        <f t="shared" si="17"/>
+        <v>3592.0862928610213</v>
       </c>
       <c r="CT17" s="2">
         <f t="shared" si="17"/>
-        <v>3628.3699927889106</v>
+        <v>3556.1654299324109</v>
       </c>
       <c r="CU17" s="2">
         <f t="shared" si="17"/>
-        <v>3592.0862928610213</v>
+        <v>3520.6037756330866</v>
       </c>
       <c r="CV17" s="2">
         <f t="shared" si="17"/>
-        <v>3556.1654299324109</v>
+        <v>3485.3977378767559</v>
       </c>
       <c r="CW17" s="2">
         <f t="shared" si="17"/>
-        <v>3520.6037756330866</v>
+        <v>3450.5437604979884</v>
       </c>
       <c r="CX17" s="2">
         <f t="shared" si="17"/>
-        <v>3485.3977378767559</v>
+        <v>3416.0383228930086</v>
       </c>
       <c r="CY17" s="2">
         <f t="shared" si="17"/>
-        <v>3450.5437604979884</v>
+        <v>3381.8779396640784</v>
       </c>
       <c r="CZ17" s="2">
         <f t="shared" si="17"/>
-        <v>3416.0383228930086</v>
+        <v>3348.0591602674376</v>
       </c>
       <c r="DA17" s="2">
         <f t="shared" si="17"/>
-        <v>3381.8779396640784</v>
+        <v>3314.5785686647632</v>
       </c>
       <c r="DB17" s="2">
         <f t="shared" si="17"/>
-        <v>3348.0591602674376</v>
+        <v>3281.4327829781155</v>
       </c>
       <c r="DC17" s="2">
         <f t="shared" si="17"/>
-        <v>3314.5785686647632</v>
+        <v>3248.6184551483343</v>
       </c>
       <c r="DD17" s="2">
         <f t="shared" si="17"/>
-        <v>3281.4327829781155</v>
+        <v>3216.132270596851</v>
       </c>
       <c r="DE17" s="2">
         <f t="shared" si="17"/>
-        <v>3248.6184551483343</v>
+        <v>3183.9709478908826</v>
       </c>
       <c r="DF17" s="2">
         <f t="shared" si="17"/>
-        <v>3216.132270596851</v>
+        <v>3152.1312384119738</v>
       </c>
       <c r="DG17" s="2">
         <f t="shared" si="17"/>
-        <v>3183.9709478908826</v>
+        <v>3120.6099260278538</v>
       </c>
       <c r="DH17" s="2">
         <f t="shared" si="17"/>
-        <v>3152.1312384119738</v>
+        <v>3089.4038267675751</v>
       </c>
       <c r="DI17" s="2">
         <f t="shared" si="17"/>
-        <v>3120.6099260278538</v>
+        <v>3058.5097884998995</v>
       </c>
       <c r="DJ17" s="2">
         <f t="shared" si="17"/>
-        <v>3089.4038267675751</v>
+        <v>3027.9246906149006</v>
       </c>
       <c r="DK17" s="2">
         <f t="shared" si="17"/>
-        <v>3058.5097884998995</v>
+        <v>2997.6454437087514</v>
       </c>
       <c r="DL17" s="2">
         <f t="shared" si="17"/>
-        <v>3027.9246906149006</v>
+        <v>2967.668989271664</v>
       </c>
       <c r="DM17" s="2">
         <f t="shared" si="17"/>
-        <v>2997.6454437087514</v>
+        <v>2937.9922993789473</v>
       </c>
       <c r="DN17" s="2">
         <f t="shared" si="17"/>
-        <v>2967.668989271664</v>
+        <v>2908.6123763851579</v>
       </c>
       <c r="DO17" s="2">
         <f t="shared" si="17"/>
-        <v>2937.9922993789473</v>
+        <v>2879.5262526213064</v>
       </c>
       <c r="DP17" s="2">
         <f t="shared" si="17"/>
-        <v>2908.6123763851579</v>
+        <v>2850.7309900950931</v>
       </c>
       <c r="DQ17" s="2">
         <f t="shared" si="17"/>
-        <v>2879.5262526213064</v>
+        <v>2822.2236801941422</v>
       </c>
       <c r="DR17" s="2">
         <f t="shared" si="17"/>
-        <v>2850.7309900950931</v>
+        <v>2794.0014433922006</v>
       </c>
       <c r="DS17" s="2">
         <f t="shared" si="17"/>
-        <v>2822.2236801941422</v>
+        <v>2766.0614289582786</v>
       </c>
       <c r="DT17" s="2">
         <f t="shared" si="17"/>
-        <v>2794.0014433922006</v>
+        <v>2738.4008146686956</v>
       </c>
       <c r="DU17" s="2">
         <f t="shared" si="17"/>
-        <v>2766.0614289582786</v>
+        <v>2711.0168065220087</v>
       </c>
       <c r="DV17" s="2">
         <f t="shared" si="17"/>
-        <v>2738.4008146686956</v>
+        <v>2683.9066384567886</v>
       </c>
       <c r="DW17" s="2">
         <f t="shared" si="17"/>
-        <v>2711.0168065220087</v>
+        <v>2657.0675720722206</v>
       </c>
       <c r="DX17" s="2">
         <f t="shared" si="17"/>
-        <v>2683.9066384567886</v>
+        <v>2630.4968963514984</v>
       </c>
       <c r="DY17" s="2">
         <f t="shared" si="17"/>
-        <v>2657.0675720722206</v>
+        <v>2604.1919273879835</v>
       </c>
       <c r="DZ17" s="2">
         <f t="shared" si="17"/>
-        <v>2630.4968963514984</v>
+        <v>2578.1500081141035</v>
       </c>
       <c r="EA17" s="2">
         <f t="shared" si="17"/>
-        <v>2604.1919273879835</v>
+        <v>2552.3685080329624</v>
       </c>
       <c r="EB17" s="2">
         <f t="shared" si="17"/>
-        <v>2578.1500081141035</v>
+        <v>2526.8448229526325</v>
       </c>
       <c r="EC17" s="2">
         <f t="shared" si="17"/>
-        <v>2552.3685080329624</v>
+        <v>2501.5763747231063</v>
       </c>
       <c r="ED17" s="2">
         <f t="shared" si="17"/>
-        <v>2526.8448229526325</v>
+        <v>2476.5606109758751</v>
       </c>
       <c r="EE17" s="2">
         <f t="shared" si="17"/>
-        <v>2501.5763747231063</v>
+        <v>2451.7950048661164</v>
       </c>
       <c r="EF17" s="2">
         <f t="shared" si="17"/>
-        <v>2476.5606109758751</v>
+        <v>2427.2770548174553</v>
       </c>
       <c r="EG17" s="2">
         <f t="shared" si="17"/>
-        <v>2451.7950048661164</v>
+        <v>2403.0042842692806</v>
       </c>
       <c r="EH17" s="2">
         <f t="shared" si="17"/>
-        <v>2427.2770548174553</v>
+        <v>2378.9742414265879</v>
       </c>
       <c r="EI17" s="2">
         <f t="shared" si="17"/>
-        <v>2403.0042842692806</v>
+        <v>2355.1844990123222</v>
       </c>
       <c r="EJ17" s="2">
         <f t="shared" si="17"/>
-        <v>2378.9742414265879</v>
+        <v>2331.6326540221989</v>
       </c>
       <c r="EK17" s="2">
         <f t="shared" si="17"/>
-        <v>2355.1844990123222</v>
+        <v>2308.3163274819767</v>
       </c>
       <c r="EL17" s="2">
         <f t="shared" si="17"/>
-        <v>2331.6326540221989</v>
+        <v>2285.2331642071567</v>
       </c>
       <c r="EM17" s="2">
         <f t="shared" si="17"/>
-        <v>2308.3163274819767</v>
-      </c>
-      <c r="EN17" s="2">
-        <f t="shared" si="17"/>
-        <v>2285.2331642071567</v>
-      </c>
-      <c r="EO17" s="2">
-        <f t="shared" si="17"/>
         <v>2262.3808325650853</v>
       </c>
     </row>
-    <row r="18" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2481,64 +2812,72 @@
         <f>2896.1+866.5</f>
         <v>3762.6</v>
       </c>
-      <c r="R18" s="4">
-        <f>2896.1+866.5</f>
+      <c r="N18" s="4">
+        <f t="shared" ref="N18:S18" si="18">2896.1+866.5</f>
         <v>3762.6</v>
       </c>
-      <c r="S18" s="4">
-        <f>2896.1+866.5</f>
-        <v>3762.6</v>
-      </c>
-      <c r="T18" s="4">
-        <f>2896.1+866.5</f>
-        <v>3762.6</v>
-      </c>
-      <c r="U18" s="4">
-        <f>2896.1+866.5</f>
-        <v>3762.6</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" ref="V18:AE18" si="18">2896.1+866.5</f>
-        <v>3762.6</v>
-      </c>
-      <c r="W18" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="18"/>
         <v>3762.6</v>
       </c>
-      <c r="X18" s="4">
+      <c r="P18" s="4">
         <f t="shared" si="18"/>
         <v>3762.6</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Q18" s="4">
         <f t="shared" si="18"/>
         <v>3762.6</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="18"/>
         <v>3762.6</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="18"/>
         <v>3762.6</v>
       </c>
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:AC18" si="19">2896.1+866.5</f>
+        <v>3762.6</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="19"/>
+        <v>3762.6</v>
+      </c>
       <c r="AB18" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3762.6</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3762.6</v>
       </c>
-      <c r="AD18" s="4">
-        <f t="shared" si="18"/>
-        <v>3762.6</v>
-      </c>
-      <c r="AE18" s="4">
-        <f t="shared" si="18"/>
-        <v>3762.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:145" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2558,644 +2897,1849 @@
         <f>J17/J18</f>
         <v>-4.0131823738903949E-2</v>
       </c>
+      <c r="N19" s="8">
+        <f t="shared" ref="N19:S19" si="20">N17/N18</f>
+        <v>1.2262797002073036</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="20"/>
+        <v>3.8101312921915698</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="20"/>
+        <v>4.464731834369851</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="20"/>
+        <v>4.9423271142295224</v>
+      </c>
       <c r="R19" s="8">
-        <f>R17/R18</f>
-        <v>4.464731834369851</v>
+        <f t="shared" si="20"/>
+        <v>1.4545792802849093</v>
       </c>
       <c r="S19" s="8">
-        <f>S17/S18</f>
-        <v>4.9423271142295224</v>
+        <f t="shared" si="20"/>
+        <v>-3.2170307765907048E-2</v>
       </c>
       <c r="T19" s="8">
-        <f>T17/T18</f>
-        <v>1.4545792802849093</v>
+        <f t="shared" ref="T19:AC19" si="21">T17/T18</f>
+        <v>0.61733661042895893</v>
       </c>
       <c r="U19" s="8">
-        <f>U17/U18</f>
-        <v>-3.2170307765907048E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.2543464803954714</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" ref="V19:AE19" si="19">V17/V18</f>
-        <v>0.61733661042895893</v>
+        <f t="shared" si="21"/>
+        <v>1.5852529969083087</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.2543464803954714</v>
+        <f t="shared" si="21"/>
+        <v>1.6476825530614132</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.5852529969083087</v>
+        <f t="shared" si="21"/>
+        <v>1.701420999539246</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.6476825530614132</v>
+        <f t="shared" si="21"/>
+        <v>1.7482445062924108</v>
       </c>
       <c r="Z19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.701420999539246</v>
+        <f t="shared" si="21"/>
+        <v>1.7895743887615543</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.7482445062924108</v>
+        <f t="shared" si="21"/>
+        <v>1.8265480825741456</v>
       </c>
       <c r="AB19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.7895743887615543</v>
+        <f t="shared" si="21"/>
+        <v>1.8600759233398663</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.8265480825741456</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="19"/>
-        <v>1.8600759233398663</v>
-      </c>
-      <c r="AE19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8908865705252496</v>
       </c>
     </row>
-    <row r="21" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" ref="I21" si="20">I3/G3-1</f>
+        <f t="shared" ref="I21" si="22">I3/G3-1</f>
         <v>-0.1357250325309044</v>
       </c>
       <c r="J21" s="10">
         <f>J3/H3-1</f>
         <v>-0.21184302886724582</v>
       </c>
-      <c r="R21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10">
+        <f t="shared" ref="O21" si="23">O3/N3-1</f>
+        <v>0.13621696718005416</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" ref="P21" si="24">P3/O3-1</f>
+        <v>0.18060202867491904</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" ref="Q21" si="25">Q3/P3-1</f>
+        <v>5.5414495077731774E-2</v>
+      </c>
+      <c r="R21" s="10">
+        <f>R3/Q3-1</f>
+        <v>-0.17233993162537453</v>
+      </c>
       <c r="S21" s="10">
-        <f t="shared" ref="S21" si="21">S3/R3-1</f>
-        <v>5.5414495077731774E-2</v>
+        <f t="shared" ref="S21:AC21" si="26">S3/R3-1</f>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="T21" s="10">
-        <f>T3/S3-1</f>
-        <v>-0.17233993162537453</v>
+        <f t="shared" si="26"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="U21" s="10">
-        <f t="shared" ref="U21:AE21" si="22">U3/T3-1</f>
-        <v>-0.30000000000000004</v>
+        <f t="shared" si="26"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V21" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="W21" s="10">
-        <f t="shared" si="22"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="X21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AA21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AB21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AC21" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AD21" s="10">
-        <f t="shared" si="22"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AE21" s="10">
-        <f t="shared" si="22"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:145" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ref="G22:I22" si="23">G5/G3</f>
+        <f t="shared" ref="G22:I22" si="27">G5/G3</f>
         <v>0.21789606376057255</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.18327191366148987</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.17877600950398156</v>
       </c>
       <c r="J22" s="10">
         <f>J5/J3</f>
         <v>7.4017895659676314E-2</v>
       </c>
+      <c r="N22" s="10">
+        <f t="shared" ref="N22:P22" si="28">N5/N3</f>
+        <v>0.1620456820184939</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="28"/>
+        <v>0.1966355287636653</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="28"/>
+        <v>0.196361753307497</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" ref="Q22" si="29">Q5/Q3</f>
+        <v>0.20124087283163802</v>
+      </c>
       <c r="R22" s="10">
-        <f t="shared" ref="R22:S22" si="24">R5/R3</f>
-        <v>0.196361753307497</v>
+        <f>R5/R3</f>
+        <v>0.13078953071813765</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="24"/>
-        <v>0.20124087283163802</v>
+        <f t="shared" ref="S22:AC22" si="30">S5/S3</f>
+        <v>0.15</v>
       </c>
       <c r="T22" s="10">
-        <f>T5/T3</f>
-        <v>0.13078953071813765</v>
+        <f t="shared" si="30"/>
+        <v>0.17</v>
       </c>
       <c r="U22" s="10">
-        <f t="shared" ref="U22:AE22" si="25">U5/U3</f>
-        <v>0.15</v>
+        <f t="shared" si="30"/>
+        <v>0.19</v>
       </c>
       <c r="V22" s="10">
-        <f t="shared" si="25"/>
-        <v>0.17</v>
+        <f t="shared" si="30"/>
+        <v>0.2</v>
       </c>
       <c r="W22" s="10">
-        <f t="shared" si="25"/>
-        <v>0.19</v>
+        <f t="shared" si="30"/>
+        <v>0.2</v>
       </c>
       <c r="X22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="Y22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="Z22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="AA22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="AB22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="AC22" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AD22" s="10">
-        <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE22" s="10">
-        <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:145" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10">
-        <f t="shared" ref="I23" si="26">I6/G6-1</f>
+        <f t="shared" ref="I23" si="31">I6/G6-1</f>
         <v>-7.2546230440967308E-2</v>
       </c>
       <c r="J23" s="10">
         <f>J6/H6-1</f>
         <v>2.4891774891774965E-2</v>
       </c>
-      <c r="R23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10">
+        <f t="shared" ref="O23:O24" si="32">O6/N6-1</f>
+        <v>-8.1941045014366498E-3</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" ref="P23:P24" si="33">P6/O6-1</f>
+        <v>-3.6373390557939866E-2</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" ref="Q23" si="34">Q6/P6-1</f>
+        <v>6.235385814497274E-2</v>
+      </c>
+      <c r="R23" s="10">
+        <f>R6/Q6-1</f>
+        <v>-2.5364217587255045E-2</v>
+      </c>
       <c r="S23" s="10">
-        <f t="shared" ref="S23" si="27">S6/R6-1</f>
-        <v>6.235385814497274E-2</v>
+        <f t="shared" ref="S23:AC23" si="35">S6/R6-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T23" s="10">
-        <f>T6/S6-1</f>
-        <v>-2.5364217587255045E-2</v>
+        <f t="shared" si="35"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23:AE23" si="28">U6/T6-1</f>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" si="28"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="W23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AA23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AB23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AC23" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AD23" s="10">
-        <f t="shared" si="28"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AE23" s="10">
-        <f t="shared" si="28"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AF23" s="10">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10">
-        <f t="shared" ref="I24" si="29">I7/G7-1</f>
+        <f t="shared" ref="I24" si="36">I7/G7-1</f>
         <v>3.0712979890310743E-2</v>
       </c>
       <c r="J24" s="10">
         <f>J7/H7-1</f>
         <v>2.8085991678224786E-2</v>
       </c>
-      <c r="R24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10">
+        <f t="shared" si="32"/>
+        <v>1.9775873434411118E-3</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="33"/>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" ref="Q24" si="37">Q7/P7-1</f>
+        <v>8.0576923076923102E-2</v>
+      </c>
+      <c r="R24" s="10">
+        <f>R7/Q7-1</f>
+        <v>2.9364655632674763E-2</v>
+      </c>
       <c r="S24" s="10">
-        <f t="shared" ref="S24" si="30">S7/R7-1</f>
-        <v>8.0576923076923102E-2</v>
+        <f t="shared" ref="S24:AC24" si="38">S7/R7-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="T24" s="10">
-        <f>T7/S7-1</f>
-        <v>2.9364655632674763E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" ref="U24:AE24" si="31">U7/T7-1</f>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="W24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AA24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AB24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AC24" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AD24" s="10">
-        <f t="shared" si="31"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AE24" s="10">
-        <f t="shared" si="31"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH24" s="10">
+      <c r="AF24" s="10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25:I25" si="32">G12/G3</f>
+        <f t="shared" ref="G25:I25" si="39">G12/G3</f>
         <v>0.13765655497722837</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>9.6900500131613582E-2</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>7.8090264300081161E-2</v>
       </c>
       <c r="J25" s="10">
         <f>J12/J3</f>
         <v>-4.1079305882189228E-2</v>
       </c>
+      <c r="N25" s="10">
+        <f t="shared" ref="N25:P25" si="40">N12/N3</f>
+        <v>5.554144694581796E-2</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="40"/>
+        <v>0.10057257804744969</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="40"/>
+        <v>0.112900351908771</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" ref="Q25" si="41">Q12/Q3</f>
+        <v>0.11805174524121048</v>
+      </c>
       <c r="R25" s="10">
-        <f t="shared" ref="R25:S25" si="33">R12/R3</f>
-        <v>0.112900351908771</v>
+        <f>R12/R3</f>
+        <v>2.3502339397493594E-2</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="33"/>
-        <v>0.11805174524121048</v>
+        <f t="shared" ref="S25:AC25" si="42">S12/S3</f>
+        <v>-1.3122116731290939E-3</v>
       </c>
       <c r="T25" s="10">
-        <f>T12/T3</f>
-        <v>2.3502339397493594E-2</v>
+        <f t="shared" si="42"/>
+        <v>2.4447445658586548E-2</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" ref="U25:AE25" si="34">U12/U3</f>
-        <v>-1.3122116731290939E-3</v>
+        <f t="shared" si="42"/>
+        <v>4.8699981943399563E-2</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" si="34"/>
-        <v>2.4447445658586548E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.0938041712062074E-2</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" si="34"/>
-        <v>4.8699981943399563E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.2710762320903654E-2</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.0938041712062074E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.4114897456619815E-2</v>
       </c>
       <c r="Y25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.2710762320903654E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.5227083702731531E-2</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.4114897456619815E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.6108023303612137E-2</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.5227083702731531E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.6805797244903736E-2</v>
       </c>
       <c r="AB25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.6108023303612137E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.735848947562971E-2</v>
       </c>
       <c r="AC25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.6805797244903736E-2</v>
-      </c>
-      <c r="AD25" s="10">
-        <f t="shared" si="34"/>
-        <v>6.735848947562971E-2</v>
-      </c>
-      <c r="AE25" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>6.7796265499967145E-2</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH25" s="4">
-        <f>NPV(AH24,U17:EO17)</f>
+      <c r="AF25" s="4">
+        <f>NPV(AF24,S17:EM17)</f>
         <v>69034.014853054192</v>
       </c>
     </row>
-    <row r="26" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ref="G26:I26" si="35">G15/G14</f>
+        <f t="shared" ref="G26:I26" si="43">G15/G14</f>
         <v>0.19779573842762674</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.125</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.19201602518242952</v>
       </c>
       <c r="J26" s="10">
         <f>J15/J14</f>
         <v>0.95705106526885353</v>
       </c>
+      <c r="N26" s="10">
+        <f t="shared" ref="N26:P26" si="44">N15/N14</f>
+        <v>0.30810171496156119</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="44"/>
+        <v>0.13323713323713324</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="44"/>
+        <v>0.13989132663522658</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" ref="Q26" si="45">Q15/Q14</f>
+        <v>0.16919439735926486</v>
+      </c>
       <c r="R26" s="10">
-        <f t="shared" ref="R26:S26" si="36">R15/R14</f>
-        <v>0.13989132663522658</v>
+        <f>R15/R14</f>
+        <v>-0.36904761904761907</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="36"/>
-        <v>0.16919439735926486</v>
+        <f t="shared" ref="S26:AC26" si="46">S15/S14</f>
+        <v>0.15</v>
       </c>
       <c r="T26" s="10">
-        <f>T15/T14</f>
-        <v>-0.36904761904761907</v>
+        <f t="shared" si="46"/>
+        <v>0.15</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" ref="U26:AE26" si="37">U15/U14</f>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="W26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="X26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="Y26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="AA26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="AB26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="AC26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
-      <c r="AD26" s="10">
-        <f t="shared" si="37"/>
-        <v>0.15</v>
-      </c>
-      <c r="AE26" s="10">
-        <f t="shared" si="37"/>
-        <v>0.15</v>
-      </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AF26" s="4">
         <f>Main!D8</f>
         <v>-3127</v>
       </c>
     </row>
-    <row r="27" spans="2:145" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:143" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:I27" si="38">G17/G3</f>
+        <f t="shared" ref="G27:I27" si="47">G17/G3</f>
         <v>0.11104220884840599</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>8.4155918224094059E-2</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>6.6151475587235498E-2</v>
       </c>
       <c r="J27" s="10">
         <f>J17/J3</f>
         <v>-2.1012788577949096E-3</v>
       </c>
+      <c r="N27" s="10">
+        <f t="shared" ref="N27:P27" si="48">N17/N3</f>
+        <v>3.4463183997848854E-2</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="48"/>
+        <v>9.424200790170853E-2</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="48"/>
+        <v>9.3539801327453334E-2</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" ref="Q27" si="49">Q17/Q3</f>
+        <v>9.8109146161313471E-2</v>
+      </c>
       <c r="R27" s="10">
-        <f t="shared" ref="R27:S27" si="39">R17/R3</f>
-        <v>9.3539801327453334E-2</v>
+        <f>R17/R3</f>
+        <v>3.4886982240977062E-2</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="39"/>
-        <v>9.8109146161313471E-2</v>
+        <f t="shared" ref="S27:AC27" si="50">S17/S3</f>
+        <v>-1.1022578054284389E-3</v>
       </c>
       <c r="T27" s="10">
-        <f>T17/T3</f>
-        <v>3.4886982240977062E-2</v>
+        <f t="shared" si="50"/>
+        <v>2.0535854353212701E-2</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" ref="U27:AE27" si="40">U17/U3</f>
-        <v>-1.1022578054284389E-3</v>
+        <f t="shared" si="50"/>
+        <v>4.0907984832455634E-2</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="40"/>
-        <v>2.0535854353212701E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.1187955038132144E-2</v>
       </c>
       <c r="W27" s="10">
-        <f t="shared" si="40"/>
-        <v>4.0907984832455634E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.2677040349559071E-2</v>
       </c>
       <c r="X27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.1187955038132144E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.3856513863560641E-2</v>
       </c>
       <c r="Y27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.2677040349559071E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.4790750310294484E-2</v>
       </c>
       <c r="Z27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.3856513863560641E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.5530739575034203E-2</v>
       </c>
       <c r="AA27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.4790750310294484E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.6116869685719141E-2</v>
       </c>
       <c r="AB27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.5530739575034203E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.6581131159528952E-2</v>
       </c>
       <c r="AC27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.6116869685719141E-2</v>
-      </c>
-      <c r="AD27" s="10">
-        <f t="shared" si="40"/>
-        <v>5.6581131159528952E-2</v>
-      </c>
-      <c r="AE27" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>5.6948863019972394E-2</v>
       </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AE27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH27" s="4">
-        <f>AH25-AH26</f>
+      <c r="AF27" s="4">
+        <f>AF25-AF26</f>
         <v>72161.014853054192</v>
       </c>
     </row>
-    <row r="28" spans="2:145" x14ac:dyDescent="0.3">
-      <c r="AG28" s="1" t="s">
+    <row r="28" spans="2:143" x14ac:dyDescent="0.3">
+      <c r="AE28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH28" s="11">
-        <f>AH27/AE18</f>
+      <c r="AF28" s="11">
+        <f>AF27/AC18</f>
         <v>19.178497542405303</v>
       </c>
     </row>
-    <row r="29" spans="2:145" x14ac:dyDescent="0.3">
-      <c r="AG29" s="1" t="s">
+    <row r="29" spans="2:143" x14ac:dyDescent="0.3">
+      <c r="AE29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH29" s="11">
+      <c r="AF29" s="11">
         <f>Main!D3</f>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:145" x14ac:dyDescent="0.3">
-      <c r="AG30" s="2" t="s">
+    <row r="30" spans="2:143" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ref="G30:I30" si="51">G17</f>
+        <v>10923</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="51"/>
+        <v>7673</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="51"/>
+        <v>5624</v>
+      </c>
+      <c r="J30" s="9">
+        <f>J17</f>
+        <v>-151</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" ref="N30:AC30" si="52">N17</f>
+        <v>4614</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="52"/>
+        <v>14336</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="52"/>
+        <v>16799</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="52"/>
+        <v>18596</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="52"/>
+        <v>5473</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="52"/>
+        <v>-121.04400000000184</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="52"/>
+        <v>2322.7907304000009</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="52"/>
+        <v>4719.6040671360006</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="52"/>
+        <v>5964.6729261672017</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="52"/>
+        <v>6199.5703741488733</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="52"/>
+        <v>6401.7666528663667</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="52"/>
+        <v>6577.9447793758245</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="52"/>
+        <v>6733.4525951542237</v>
+      </c>
+      <c r="AA30" s="9">
+        <f t="shared" si="52"/>
+        <v>6872.5698154934798</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" si="52"/>
+        <v>6998.7216691585809</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" si="52"/>
+        <v>7114.6498102583037</v>
+      </c>
+      <c r="AE30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH30" s="12">
-        <f>AH28/AH29-1</f>
+      <c r="AF30" s="12">
+        <f>AF28/AF29-1</f>
         <v>1.3973121928006629</v>
       </c>
     </row>
-    <row r="31" spans="2:145" x14ac:dyDescent="0.3">
-      <c r="AG31" s="1" t="s">
+    <row r="31" spans="2:143" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="P31" s="4">
+        <v>6797</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>7549</v>
+      </c>
+      <c r="R31" s="4">
+        <v>7226</v>
+      </c>
+      <c r="S31" s="1">
+        <f>R31*1.001</f>
+        <v>7233.2259999999997</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" ref="T31:AC31" si="53">S31*1.001</f>
+        <v>7240.459225999999</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="53"/>
+        <v>7247.6996852259981</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="53"/>
+        <v>7254.9473849112237</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="53"/>
+        <v>7262.202332296134</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="53"/>
+        <v>7269.4645346284296</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="53"/>
+        <v>7276.733999163057</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="53"/>
+        <v>7284.0107331622194</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="53"/>
+        <v>7291.2947438953806</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="53"/>
+        <v>7298.5860386392751</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="53"/>
+        <v>7305.884624677914</v>
+      </c>
+      <c r="AE31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH31" s="7" t="s">
+      <c r="AF31" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:143" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="P32" s="4">
+        <v>-192</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>-195</v>
+      </c>
+      <c r="R32" s="4">
+        <v>-32</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="P33" s="4">
+        <v>-711</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>701</v>
+      </c>
+      <c r="R33" s="4">
+        <v>-2921</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="P34" s="4">
+        <v>391</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>720</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1927</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="P35" s="4">
+        <v>1906</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>2460</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1779</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="V35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="X35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="P36" s="4">
+        <v>-47</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>-156</v>
+      </c>
+      <c r="R36" s="4">
+        <v>381</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="P37" s="4">
+        <v>-483</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>-1747</v>
+      </c>
+      <c r="R37" s="4">
+        <v>-3885</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="T37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="U37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="V37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="W37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="X37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="P38" s="4">
+        <v>-4481</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>-5472</v>
+      </c>
+      <c r="R38" s="4">
+        <v>-5987</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="P39" s="9">
+        <f>P30+SUM(P31:P38)</f>
+        <v>19979</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" ref="Q39:AC39" si="54">Q30+SUM(Q31:Q38)</f>
+        <v>22456</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="54"/>
+        <v>3961</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="54"/>
+        <v>7112.1819999999971</v>
+      </c>
+      <c r="T39" s="9">
+        <f t="shared" si="54"/>
+        <v>9563.2499563999991</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="54"/>
+        <v>11967.303752361999</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" si="54"/>
+        <v>13219.620311078426</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="54"/>
+        <v>13461.772706445008</v>
+      </c>
+      <c r="X39" s="9">
+        <f t="shared" si="54"/>
+        <v>13671.231187494797</v>
+      </c>
+      <c r="Y39" s="9">
+        <f t="shared" si="54"/>
+        <v>13854.678778538882</v>
+      </c>
+      <c r="Z39" s="9">
+        <f t="shared" si="54"/>
+        <v>14017.463328316444</v>
+      </c>
+      <c r="AA39" s="9">
+        <f t="shared" si="54"/>
+        <v>14163.864559388861</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="54"/>
+        <v>14297.307707797856</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" si="54"/>
+        <v>14420.534434936217</v>
+      </c>
+    </row>
+    <row r="40" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="P40" s="4">
+        <v>8615</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>10193</v>
+      </c>
+      <c r="R40" s="4">
+        <f>11060</f>
+        <v>11060</v>
+      </c>
+      <c r="S40" s="4">
+        <f>R40*0.99</f>
+        <v>10949.4</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" ref="T40:AC40" si="55">S40*0.99</f>
+        <v>10839.905999999999</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="55"/>
+        <v>10731.506939999999</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="55"/>
+        <v>10624.1918706</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="55"/>
+        <v>10517.949951893999</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="55"/>
+        <v>10412.77045237506</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="55"/>
+        <v>10308.642747851309</v>
+      </c>
+      <c r="Z40" s="4">
+        <f t="shared" si="55"/>
+        <v>10205.556320372796</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="55"/>
+        <v>10103.500757169068</v>
+      </c>
+      <c r="AB40" s="4">
+        <f t="shared" si="55"/>
+        <v>10002.465749597377</v>
+      </c>
+      <c r="AC40" s="4">
+        <f t="shared" si="55"/>
+        <v>9902.4410921014023</v>
+      </c>
+    </row>
+    <row r="41" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="P41" s="9">
+        <f>P39-P40</f>
+        <v>11364</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>Q39-Q40</f>
+        <v>12263</v>
+      </c>
+      <c r="R41" s="9">
+        <f>R39-R40</f>
+        <v>-7099</v>
+      </c>
+      <c r="S41" s="9">
+        <f>S39-S40</f>
+        <v>-3837.2180000000026</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" ref="T41:AC41" si="56">T39-T40</f>
+        <v>-1276.6560436</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="56"/>
+        <v>1235.7968123619994</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="56"/>
+        <v>2595.4284404784266</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="56"/>
+        <v>2943.822754551009</v>
+      </c>
+      <c r="X41" s="9">
+        <f t="shared" si="56"/>
+        <v>3258.4607351197374</v>
+      </c>
+      <c r="Y41" s="9">
+        <f t="shared" si="56"/>
+        <v>3546.0360306875737</v>
+      </c>
+      <c r="Z41" s="9">
+        <f t="shared" si="56"/>
+        <v>3811.9070079436478</v>
+      </c>
+      <c r="AA41" s="9">
+        <f t="shared" si="56"/>
+        <v>4060.3638022197938</v>
+      </c>
+      <c r="AB41" s="9">
+        <f t="shared" si="56"/>
+        <v>4294.841958200479</v>
+      </c>
+      <c r="AC41" s="9">
+        <f t="shared" si="56"/>
+        <v>4518.0933428348144</v>
+      </c>
+      <c r="AD41" s="2">
+        <f>AC41*(1+$AF$23)</f>
+        <v>4472.9124094064664</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" ref="AE41:CP41" si="57">AD41*(1+$AF$23)</f>
+        <v>4428.1832853124015</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="57"/>
+        <v>4383.9014524592776</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" si="57"/>
+        <v>4340.0624379346846</v>
+      </c>
+      <c r="AH41" s="2">
+        <f t="shared" si="57"/>
+        <v>4296.6618135553381</v>
+      </c>
+      <c r="AI41" s="2">
+        <f t="shared" si="57"/>
+        <v>4253.6951954197848</v>
+      </c>
+      <c r="AJ41" s="2">
+        <f t="shared" si="57"/>
+        <v>4211.1582434655866</v>
+      </c>
+      <c r="AK41" s="2">
+        <f t="shared" si="57"/>
+        <v>4169.0466610309304</v>
+      </c>
+      <c r="AL41" s="2">
+        <f t="shared" si="57"/>
+        <v>4127.3561944206213</v>
+      </c>
+      <c r="AM41" s="2">
+        <f t="shared" si="57"/>
+        <v>4086.0826324764148</v>
+      </c>
+      <c r="AN41" s="2">
+        <f t="shared" si="57"/>
+        <v>4045.2218061516505</v>
+      </c>
+      <c r="AO41" s="2">
+        <f t="shared" si="57"/>
+        <v>4004.7695880901338</v>
+      </c>
+      <c r="AP41" s="2">
+        <f t="shared" si="57"/>
+        <v>3964.7218922092325</v>
+      </c>
+      <c r="AQ41" s="2">
+        <f t="shared" si="57"/>
+        <v>3925.0746732871403</v>
+      </c>
+      <c r="AR41" s="2">
+        <f t="shared" si="57"/>
+        <v>3885.8239265542688</v>
+      </c>
+      <c r="AS41" s="2">
+        <f t="shared" si="57"/>
+        <v>3846.9656872887263</v>
+      </c>
+      <c r="AT41" s="2">
+        <f t="shared" si="57"/>
+        <v>3808.496030415839</v>
+      </c>
+      <c r="AU41" s="2">
+        <f t="shared" si="57"/>
+        <v>3770.4110701116806</v>
+      </c>
+      <c r="AV41" s="2">
+        <f t="shared" si="57"/>
+        <v>3732.7069594105637</v>
+      </c>
+      <c r="AW41" s="2">
+        <f t="shared" si="57"/>
+        <v>3695.3798898164582</v>
+      </c>
+      <c r="AX41" s="2">
+        <f t="shared" si="57"/>
+        <v>3658.4260909182935</v>
+      </c>
+      <c r="AY41" s="2">
+        <f t="shared" si="57"/>
+        <v>3621.8418300091107</v>
+      </c>
+      <c r="AZ41" s="2">
+        <f t="shared" si="57"/>
+        <v>3585.6234117090194</v>
+      </c>
+      <c r="BA41" s="2">
+        <f t="shared" si="57"/>
+        <v>3549.7671775919293</v>
+      </c>
+      <c r="BB41" s="2">
+        <f t="shared" si="57"/>
+        <v>3514.2695058160102</v>
+      </c>
+      <c r="BC41" s="2">
+        <f t="shared" si="57"/>
+        <v>3479.1268107578503</v>
+      </c>
+      <c r="BD41" s="2">
+        <f t="shared" si="57"/>
+        <v>3444.3355426502717</v>
+      </c>
+      <c r="BE41" s="2">
+        <f t="shared" si="57"/>
+        <v>3409.8921872237688</v>
+      </c>
+      <c r="BF41" s="2">
+        <f t="shared" si="57"/>
+        <v>3375.7932653515313</v>
+      </c>
+      <c r="BG41" s="2">
+        <f t="shared" si="57"/>
+        <v>3342.0353326980162</v>
+      </c>
+      <c r="BH41" s="2">
+        <f t="shared" si="57"/>
+        <v>3308.614979371036</v>
+      </c>
+      <c r="BI41" s="2">
+        <f t="shared" si="57"/>
+        <v>3275.5288295773257</v>
+      </c>
+      <c r="BJ41" s="2">
+        <f t="shared" si="57"/>
+        <v>3242.7735412815523</v>
+      </c>
+      <c r="BK41" s="2">
+        <f t="shared" si="57"/>
+        <v>3210.3458058687365</v>
+      </c>
+      <c r="BL41" s="2">
+        <f t="shared" si="57"/>
+        <v>3178.2423478100491</v>
+      </c>
+      <c r="BM41" s="2">
+        <f t="shared" si="57"/>
+        <v>3146.4599243319485</v>
+      </c>
+      <c r="BN41" s="2">
+        <f t="shared" si="57"/>
+        <v>3114.9953250886292</v>
+      </c>
+      <c r="BO41" s="2">
+        <f t="shared" si="57"/>
+        <v>3083.8453718377427</v>
+      </c>
+      <c r="BP41" s="2">
+        <f t="shared" si="57"/>
+        <v>3053.0069181193653</v>
+      </c>
+      <c r="BQ41" s="2">
+        <f t="shared" si="57"/>
+        <v>3022.4768489381718</v>
+      </c>
+      <c r="BR41" s="2">
+        <f t="shared" si="57"/>
+        <v>2992.2520804487899</v>
+      </c>
+      <c r="BS41" s="2">
+        <f t="shared" si="57"/>
+        <v>2962.3295596443022</v>
+      </c>
+      <c r="BT41" s="2">
+        <f t="shared" si="57"/>
+        <v>2932.7062640478593</v>
+      </c>
+      <c r="BU41" s="2">
+        <f t="shared" si="57"/>
+        <v>2903.3792014073806</v>
+      </c>
+      <c r="BV41" s="2">
+        <f t="shared" si="57"/>
+        <v>2874.3454093933069</v>
+      </c>
+      <c r="BW41" s="2">
+        <f t="shared" si="57"/>
+        <v>2845.6019552993739</v>
+      </c>
+      <c r="BX41" s="2">
+        <f t="shared" si="57"/>
+        <v>2817.14593574638</v>
+      </c>
+      <c r="BY41" s="2">
+        <f t="shared" si="57"/>
+        <v>2788.9744763889162</v>
+      </c>
+      <c r="BZ41" s="2">
+        <f t="shared" si="57"/>
+        <v>2761.084731625027</v>
+      </c>
+      <c r="CA41" s="2">
+        <f t="shared" si="57"/>
+        <v>2733.4738843087766</v>
+      </c>
+      <c r="CB41" s="2">
+        <f t="shared" si="57"/>
+        <v>2706.1391454656887</v>
+      </c>
+      <c r="CC41" s="2">
+        <f t="shared" si="57"/>
+        <v>2679.0777540110316</v>
+      </c>
+      <c r="CD41" s="2">
+        <f t="shared" si="57"/>
+        <v>2652.2869764709212</v>
+      </c>
+      <c r="CE41" s="2">
+        <f t="shared" si="57"/>
+        <v>2625.7641067062118</v>
+      </c>
+      <c r="CF41" s="2">
+        <f t="shared" si="57"/>
+        <v>2599.5064656391496</v>
+      </c>
+      <c r="CG41" s="2">
+        <f t="shared" si="57"/>
+        <v>2573.511400982758</v>
+      </c>
+      <c r="CH41" s="2">
+        <f t="shared" si="57"/>
+        <v>2547.7762869729304</v>
+      </c>
+      <c r="CI41" s="2">
+        <f t="shared" si="57"/>
+        <v>2522.2985241032011</v>
+      </c>
+      <c r="CJ41" s="2">
+        <f t="shared" si="57"/>
+        <v>2497.0755388621692</v>
+      </c>
+      <c r="CK41" s="2">
+        <f t="shared" si="57"/>
+        <v>2472.1047834735473</v>
+      </c>
+      <c r="CL41" s="2">
+        <f t="shared" si="57"/>
+        <v>2447.3837356388117</v>
+      </c>
+      <c r="CM41" s="2">
+        <f t="shared" si="57"/>
+        <v>2422.9098982824235</v>
+      </c>
+      <c r="CN41" s="2">
+        <f t="shared" si="57"/>
+        <v>2398.6807992995991</v>
+      </c>
+      <c r="CO41" s="2">
+        <f t="shared" si="57"/>
+        <v>2374.693991306603</v>
+      </c>
+      <c r="CP41" s="2">
+        <f t="shared" si="57"/>
+        <v>2350.9470513935371</v>
+      </c>
+      <c r="CQ41" s="2">
+        <f t="shared" ref="CQ41:EJ41" si="58">CP41*(1+$AF$23)</f>
+        <v>2327.4375808796017</v>
+      </c>
+      <c r="CR41" s="2">
+        <f t="shared" si="58"/>
+        <v>2304.1632050708058</v>
+      </c>
+      <c r="CS41" s="2">
+        <f t="shared" si="58"/>
+        <v>2281.1215730200979</v>
+      </c>
+      <c r="CT41" s="2">
+        <f t="shared" si="58"/>
+        <v>2258.3103572898967</v>
+      </c>
+      <c r="CU41" s="2">
+        <f t="shared" si="58"/>
+        <v>2235.7272537169979</v>
+      </c>
+      <c r="CV41" s="2">
+        <f t="shared" si="58"/>
+        <v>2213.3699811798278</v>
+      </c>
+      <c r="CW41" s="2">
+        <f t="shared" si="58"/>
+        <v>2191.2362813680297</v>
+      </c>
+      <c r="CX41" s="2">
+        <f t="shared" si="58"/>
+        <v>2169.3239185543493</v>
+      </c>
+      <c r="CY41" s="2">
+        <f t="shared" si="58"/>
+        <v>2147.6306793688059</v>
+      </c>
+      <c r="CZ41" s="2">
+        <f t="shared" si="58"/>
+        <v>2126.154372575118</v>
+      </c>
+      <c r="DA41" s="2">
+        <f t="shared" si="58"/>
+        <v>2104.8928288493667</v>
+      </c>
+      <c r="DB41" s="2">
+        <f t="shared" si="58"/>
+        <v>2083.843900560873</v>
+      </c>
+      <c r="DC41" s="2">
+        <f t="shared" si="58"/>
+        <v>2063.005461555264</v>
+      </c>
+      <c r="DD41" s="2">
+        <f t="shared" si="58"/>
+        <v>2042.3754069397114</v>
+      </c>
+      <c r="DE41" s="2">
+        <f t="shared" si="58"/>
+        <v>2021.9516528703143</v>
+      </c>
+      <c r="DF41" s="2">
+        <f t="shared" si="58"/>
+        <v>2001.7321363416111</v>
+      </c>
+      <c r="DG41" s="2">
+        <f t="shared" si="58"/>
+        <v>1981.7148149781949</v>
+      </c>
+      <c r="DH41" s="2">
+        <f t="shared" si="58"/>
+        <v>1961.8976668284129</v>
+      </c>
+      <c r="DI41" s="2">
+        <f t="shared" si="58"/>
+        <v>1942.2786901601287</v>
+      </c>
+      <c r="DJ41" s="2">
+        <f t="shared" si="58"/>
+        <v>1922.8559032585274</v>
+      </c>
+      <c r="DK41" s="2">
+        <f t="shared" si="58"/>
+        <v>1903.6273442259421</v>
+      </c>
+      <c r="DL41" s="2">
+        <f t="shared" si="58"/>
+        <v>1884.5910707836827</v>
+      </c>
+      <c r="DM41" s="2">
+        <f t="shared" si="58"/>
+        <v>1865.7451600758459</v>
+      </c>
+      <c r="DN41" s="2">
+        <f t="shared" si="58"/>
+        <v>1847.0877084750873</v>
+      </c>
+      <c r="DO41" s="2">
+        <f t="shared" si="58"/>
+        <v>1828.6168313903365</v>
+      </c>
+      <c r="DP41" s="2">
+        <f t="shared" si="58"/>
+        <v>1810.3306630764332</v>
+      </c>
+      <c r="DQ41" s="2">
+        <f t="shared" si="58"/>
+        <v>1792.2273564456689</v>
+      </c>
+      <c r="DR41" s="2">
+        <f t="shared" si="58"/>
+        <v>1774.3050828812122</v>
+      </c>
+      <c r="DS41" s="2">
+        <f t="shared" si="58"/>
+        <v>1756.5620320524001</v>
+      </c>
+      <c r="DT41" s="2">
+        <f t="shared" si="58"/>
+        <v>1738.9964117318762</v>
+      </c>
+      <c r="DU41" s="2">
+        <f t="shared" si="58"/>
+        <v>1721.6064476145573</v>
+      </c>
+      <c r="DV41" s="2">
+        <f t="shared" si="58"/>
+        <v>1704.3903831384116</v>
+      </c>
+      <c r="DW41" s="2">
+        <f t="shared" si="58"/>
+        <v>1687.3464793070275</v>
+      </c>
+      <c r="DX41" s="2">
+        <f t="shared" si="58"/>
+        <v>1670.4730145139572</v>
+      </c>
+      <c r="DY41" s="2">
+        <f t="shared" si="58"/>
+        <v>1653.7682843688176</v>
+      </c>
+      <c r="DZ41" s="2">
+        <f t="shared" si="58"/>
+        <v>1637.2306015251295</v>
+      </c>
+      <c r="EA41" s="2">
+        <f t="shared" si="58"/>
+        <v>1620.8582955098782</v>
+      </c>
+      <c r="EB41" s="2">
+        <f t="shared" si="58"/>
+        <v>1604.6497125547794</v>
+      </c>
+      <c r="EC41" s="2">
+        <f t="shared" si="58"/>
+        <v>1588.6032154292316</v>
+      </c>
+      <c r="ED41" s="2">
+        <f t="shared" si="58"/>
+        <v>1572.7171832749393</v>
+      </c>
+      <c r="EE41" s="2">
+        <f t="shared" si="58"/>
+        <v>1556.9900114421898</v>
+      </c>
+      <c r="EF41" s="2">
+        <f t="shared" si="58"/>
+        <v>1541.4201113277679</v>
+      </c>
+      <c r="EG41" s="2">
+        <f t="shared" si="58"/>
+        <v>1526.0059102144903</v>
+      </c>
+      <c r="EH41" s="2">
+        <f t="shared" si="58"/>
+        <v>1510.7458511123455</v>
+      </c>
+      <c r="EI41" s="2">
+        <f t="shared" si="58"/>
+        <v>1495.638392601222</v>
+      </c>
+      <c r="EJ41" s="2">
+        <f t="shared" si="58"/>
+        <v>1480.6820086752098</v>
+      </c>
+    </row>
+    <row r="44" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="AF44" s="15">
+        <f>NPV(AF24,S41:EJ41)</f>
+        <v>33698.625511583537</v>
+      </c>
+    </row>
+    <row r="45" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="AF45" s="4">
+        <f>Main!D8</f>
+        <v>-3127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="AF46" s="15">
+        <f>AF44+AF45</f>
+        <v>30571.625511583537</v>
+      </c>
+    </row>
+    <row r="47" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="AF47" s="16">
+        <f>AF46/AC18</f>
+        <v>8.1251330227990053</v>
+      </c>
+    </row>
+    <row r="48" spans="2:140" x14ac:dyDescent="0.3">
+      <c r="AF48" s="16">
+        <f>Main!D3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF49" s="12">
+        <f>AF47/AF48-1</f>
+        <v>1.5641627849875661E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>